--- a/truth_table_starter.xlsx
+++ b/truth_table_starter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlmar\Documents\CMSC_301\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F98D17-C5C6-4007-AE4A-E5ED8D6BB9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01146D28-411A-4F93-BCA3-04BFC12D57DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="48">
   <si>
     <t>instr</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>shamt</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>011000</t>
+  </si>
+  <si>
+    <t>011001</t>
+  </si>
+  <si>
+    <t>011011</t>
+  </si>
+  <si>
+    <t>011010</t>
   </si>
 </sst>
 </file>
@@ -214,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -233,7 +260,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +603,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -807,7 +839,7 @@
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J6" t="s">
@@ -848,10 +880,10 @@
       <c r="H7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K7">
@@ -889,10 +921,10 @@
       <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K8">
@@ -930,10 +962,10 @@
       <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K9">
@@ -971,10 +1003,10 @@
       <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K10">
@@ -1012,10 +1044,10 @@
       <c r="H11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="14" t="s">
+      <c r="I11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K11">
@@ -1028,57 +1060,173 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="11"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1100</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1090,7 +1238,7 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1102,7 +1250,7 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -1114,7 +1262,7 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1126,7 +1274,7 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1136,21 +1284,53 @@
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="G24" s="5"/>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
